--- a/Shin Yong Jin/출근확인서_SYJ.xlsx
+++ b/Shin Yong Jin/출근확인서_SYJ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Project_SYJ\SKU_project\Shin Yong Jin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,16 +560,25 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -717,7 +726,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -734,7 +743,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>226720</v>
+        <v>436000</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
